--- a/src/test/resources/TestData/dsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/dsAlgo_TestData.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maya/eclipse-workspace/DSALGOQuality_TESTNG/src/test/resources/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rajasri\Numpy Ninja\eclipse-workspace\DSALGO_TESTNG\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9717C222-B294-3243-91AC-96B7A5769566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25FDA92-F623-445A-9D30-73FBFBB781F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="python code" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="ArrayCode" sheetId="4" r:id="rId3"/>
+    <sheet name="LLStackCode" sheetId="5" r:id="rId4"/>
+    <sheet name="SubPages" sheetId="6" r:id="rId5"/>
+    <sheet name="TryEditorSubPages" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>output</t>
   </si>
@@ -209,12 +212,78 @@
   <si>
     <t>def findNumbers(nums):return sum(len(str(num)) % 2 == 0 for num in nums)</t>
   </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>pint (Hi)</t>
+  </si>
+  <si>
+    <t>NameError: name 'pint' is not defined on line 1</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Page Name</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/linked-list/introduction/</t>
+  </si>
+  <si>
+    <t>Creating Linked LIst</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/linked-list/creating-linked-list/</t>
+  </si>
+  <si>
+    <t>Types of Linked List</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/linked-list/types-of-linked-list/</t>
+  </si>
+  <si>
+    <t>Implement Linked List in Python</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/linked-list/implement-linked-list-in-python/</t>
+  </si>
+  <si>
+    <t>Traversal</t>
+  </si>
+  <si>
+    <t>Insertion</t>
+  </si>
+  <si>
+    <t>Deletion</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/linked-list/deletion-in-linked-list/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/linked-list/insertion-in-linked-list/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/linked-list/traversal/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/tryEditor</t>
+  </si>
+  <si>
+    <t>PageName</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +321,23 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -326,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -344,6 +430,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,9 +452,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -403,7 +492,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -509,7 +598,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -651,7 +740,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -665,13 +754,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="88.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -679,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -687,13 +776,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -701,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -709,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -717,7 +806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -725,7 +814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -733,7 +822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -741,7 +830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -749,7 +838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -770,14 +859,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
@@ -788,7 +877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="17.399999999999999">
       <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
@@ -799,7 +888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="17.399999999999999">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -808,7 +897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17.399999999999999">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>24</v>
@@ -817,14 +906,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="17.399999999999999">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="17.399999999999999">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -835,7 +924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17.399999999999999">
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
@@ -855,13 +944,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -869,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -877,7 +966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -885,7 +974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -893,7 +982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
@@ -901,7 +990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -909,7 +998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
         <v>29</v>
       </c>
@@ -917,7 +1006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -925,7 +1014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
@@ -933,7 +1022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -941,12 +1030,221 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848D447B-5D7F-4097-B9C1-5F644EC70490}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B353F-7603-492B-83BE-B8F099897C95}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6130CC14-0A56-49D1-AA6E-19D507A31D64}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/dsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/dsAlgo_TestData.xlsx
@@ -3,24 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rajasri\Numpy Ninja\eclipse-workspace\DSALGO_TESTNG\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25FDA92-F623-445A-9D30-73FBFBB781F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{485687ED-3005-4B72-B03C-35DAAA607AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="python code" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="ArrayCode" sheetId="4" r:id="rId3"/>
     <sheet name="LLStackCode" sheetId="5" r:id="rId4"/>
-    <sheet name="SubPages" sheetId="6" r:id="rId5"/>
-    <sheet name="TryEditorSubPages" sheetId="7" r:id="rId6"/>
+    <sheet name="QueueCode" sheetId="8" r:id="rId5"/>
+    <sheet name="SubPages" sheetId="6" r:id="rId6"/>
+    <sheet name="TryEditorSubPages" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>output</t>
   </si>
@@ -452,9 +449,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -492,7 +489,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -598,7 +595,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -740,7 +737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1048,7 +1045,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1087,6 +1084,45 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CB3329-FF3C-4631-911D-1717A958ED93}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B353F-7603-492B-83BE-B8F099897C95}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -1169,11 +1205,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6130CC14-0A56-49D1-AA6E-19D507A31D64}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestData/dsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/dsAlgo_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{485687ED-3005-4B72-B03C-35DAAA607AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8E4E763F-189A-44E6-8A9D-8E5D731CACD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="python code" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="ArrayCode" sheetId="4" r:id="rId3"/>
     <sheet name="LLStackCode" sheetId="5" r:id="rId4"/>
     <sheet name="QueueCode" sheetId="8" r:id="rId5"/>
-    <sheet name="SubPages" sheetId="6" r:id="rId6"/>
-    <sheet name="TryEditorSubPages" sheetId="7" r:id="rId7"/>
+    <sheet name="GraphCode" sheetId="9" r:id="rId6"/>
+    <sheet name="SubPages" sheetId="6" r:id="rId7"/>
+    <sheet name="TryEditorSubPages" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:O9"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
   <si>
     <t>output</t>
   </si>
@@ -1087,11 +1088,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CB3329-FF3C-4631-911D-1717A958ED93}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1123,6 +1127,49 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4645001-E7EA-4317-B508-E3BD6CC4F2B1}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B353F-7603-492B-83BE-B8F099897C95}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -1205,7 +1252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6130CC14-0A56-49D1-AA6E-19D507A31D64}">
   <dimension ref="A1:B8"/>
   <sheetViews>

--- a/src/test/resources/TestData/dsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/dsAlgo_TestData.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rajasri\Numpy Ninja\eclipse-workspace\DSALGO_TESTNG\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25FDA92-F623-445A-9D30-73FBFBB781F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D18B6B-D8CF-40C2-AD00-D8724BCF9B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="python code" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="ArrayCode" sheetId="4" r:id="rId3"/>
     <sheet name="LLStackCode" sheetId="5" r:id="rId4"/>
-    <sheet name="SubPages" sheetId="6" r:id="rId5"/>
+    <sheet name="LLSubPages" sheetId="6" r:id="rId5"/>
     <sheet name="TryEditorSubPages" sheetId="7" r:id="rId6"/>
+    <sheet name="StackTryEditorSubPages" sheetId="9" r:id="rId7"/>
+    <sheet name="StackSubPages" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>output</t>
   </si>
@@ -277,6 +279,24 @@
   </si>
   <si>
     <t>PageName</t>
+  </si>
+  <si>
+    <t>OperationsInStack</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Applications</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/stack/operations-in-stack/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/stack/implementation/</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/stack/stack-applications/</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1111,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1173,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6130CC14-0A56-49D1-AA6E-19D507A31D64}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1250,4 +1270,106 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283D8D53-EDC2-4AA3-98BE-2BB299E2EF22}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FFCC5C-3D73-426E-AE76-3842A75246A1}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData/dsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/dsAlgo_TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rajasri\Numpy Ninja\eclipse-workspace\DSALGO_TESTNG\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDB0E5A-EAAE-468C-8681-BA24ECB78FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29B85E6-C402-4B3E-9A49-5142FFB08B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="python code" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="TryEditorSubPages" sheetId="7" r:id="rId8"/>
     <sheet name="StackTryEditorSubPages" sheetId="11" r:id="rId9"/>
     <sheet name="StackSubPages" sheetId="10" r:id="rId10"/>
+    <sheet name="Registration" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="73">
   <si>
     <t>output</t>
   </si>
@@ -300,12 +301,54 @@
   <si>
     <t>https://dsportalapp.herokuapp.com/stack/stack-applications/</t>
   </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>PasswordConfirmation</t>
+  </si>
+  <si>
+    <t>ExpectedOutput</t>
+  </si>
+  <si>
+    <t>QA1234</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>!@$%</t>
+  </si>
+  <si>
+    <t>password_mismatch:The two password fields didn’t match.</t>
+  </si>
+  <si>
+    <t>1234QA</t>
+  </si>
+  <si>
+    <t>https://dsportalapp.herokuapp.com/home</t>
+  </si>
+  <si>
+    <t>jack_425</t>
+  </si>
+  <si>
+    <t>SDET8514</t>
+  </si>
+  <si>
+    <t>Test258</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +403,12 @@
       <sz val="10"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -434,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -455,6 +504,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -924,6 +975,158 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2FA8A4-056C-443D-B5AB-28FFC9F80A22}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>4454</v>
+      </c>
+      <c r="C6">
+        <v>4454</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
@@ -1247,7 +1450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44B353F-7603-492B-83BE-B8F099897C95}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
